--- a/biology/Zoologie/Feuille-morte_du_kermès/Feuille-morte_du_kermès.xlsx
+++ b/biology/Zoologie/Feuille-morte_du_kermès/Feuille-morte_du_kermès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feuille-morte_du_kerm%C3%A8s</t>
+          <t>Feuille-morte_du_kermès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Phyllodesma kermesifolia
 La Feuille-morte du kermès (ou Feuille-morte de Lajonquière[réf. souhaitée]), Phyllodesma kermesifolia, est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Lasiocampidae.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feuille-morte_du_kerm%C3%A8s</t>
+          <t>Feuille-morte_du_kermès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>P.C. Rougeot, P. Viette, Guide des papillons nocturnes d'Europe et d'Afrique du Nord, Delachaux et Niestlé, Lausanne 1978.
 Collectif d'entomologistes amateurs, Guide des papillons nocturnes de France : plus de 1620 espèces décrites et illustrées, Paris, Delachaux et Niestlé, 2007, 288 p. (ISBN 978-2-603-01429-5), p. 30, n°48.</t>
